--- a/biology/Zoologie/Hypothenemus/Hypothenemus.xlsx
+++ b/biology/Zoologie/Hypothenemus/Hypothenemus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypothenemus est un genre d'insectes de l'ordre des coléoptères appartenant à la famille des Curculionidae.
-Ce genre, à répartition pantropicale ou subtropicale, comprend 179 espèces[1].
-Plusieurs espèces de ce genre sont des ravageurs des cerises du caféier, notamment Hypothenemus hampei, espèce d'origine africaine qui s'est répandue dans la quasi-totalité de l'aire de culture du caféier, Hypothenemus seriatus (Brésil),  Hypothenemus opacus (Brésil),  Hypothenemus flavosquanious (Afrique occidentale),  Hypothenemus pallidus (Afrique occidentale),  Hypothenemus fuscicollis (Brésil),  Hypothenemus buscki (Colombie),  Hypothenemus plumeriae (Brésil) et Hypothenemus polyphagus (Afrique tropicale)[2].
+Ce genre, à répartition pantropicale ou subtropicale, comprend 179 espèces.
+Plusieurs espèces de ce genre sont des ravageurs des cerises du caféier, notamment Hypothenemus hampei, espèce d'origine africaine qui s'est répandue dans la quasi-totalité de l'aire de culture du caféier, Hypothenemus seriatus (Brésil),  Hypothenemus opacus (Brésil),  Hypothenemus flavosquanious (Afrique occidentale),  Hypothenemus pallidus (Afrique occidentale),  Hypothenemus fuscicollis (Brésil),  Hypothenemus buscki (Colombie),  Hypothenemus plumeriae (Brésil) et Hypothenemus polyphagus (Afrique tropicale).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (27 oct. 2012)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (27 oct. 2012) :
 Hypothenemus areccae (Hornung, 1842)
 Hypothenemus birmanus (Eichhoff, 1878)
 Hypothenemus californicus Hopkins, 1915
@@ -531,7 +545,7 @@
 Hypothenemus pubescens Hopkins, 1915
 Hypothenemus setosus (Eichhoff, 1868)
 Hypothenemus sparsus Hopkins, 1915
-Selon NCBI  (27 oct. 2012)[4] :
+Selon NCBI  (27 oct. 2012) :
 Hypothenemus birmanus
 Hypothenemus eruditus
 Hypothenemus hampei
